--- a/Lab4CPU设计实验/输入来源表.xlsx
+++ b/Lab4CPU设计实验/输入来源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="67">
   <si>
     <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IM[10:6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,11 +269,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT.s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT.s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +620,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,10 +724,10 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -743,10 +747,10 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="L6" t="s">
         <v>25</v>
@@ -757,7 +761,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -769,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="L7" t="s">
         <v>25</v>
@@ -783,7 +787,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -798,15 +802,15 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
         <v>53</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -824,15 +828,15 @@
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -847,10 +851,10 @@
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s">
         <v>25</v>
@@ -858,13 +862,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -873,24 +877,24 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
@@ -899,24 +903,24 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
@@ -925,18 +929,18 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -954,15 +958,15 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -980,15 +984,15 @@
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1003,10 +1007,10 @@
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s">
         <v>25</v>
@@ -1014,7 +1018,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -1032,15 +1036,15 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1052,13 +1056,13 @@
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
@@ -1069,7 +1073,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1081,16 +1085,16 @@
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="J19" t="s">
         <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L19" t="s">
         <v>25</v>
@@ -1098,13 +1102,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1113,10 +1117,10 @@
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L20" t="s">
         <v>25</v>
@@ -1124,13 +1128,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1139,10 +1143,10 @@
         <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L21" t="s">
         <v>25</v>
@@ -1150,7 +1154,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1168,15 +1172,15 @@
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -1184,14 +1188,17 @@
       <c r="D23" t="s">
         <v>18</v>
       </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
       <c r="G23" t="s">
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="L23" t="s">
         <v>25</v>
@@ -1199,7 +1206,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -1217,46 +1224,46 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -1267,7 +1274,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -1275,7 +1282,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -1293,15 +1300,15 @@
         <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1309,19 +1316,25 @@
       <c r="D30" t="s">
         <v>18</v>
       </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
       <c r="G30" t="s">
         <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s">
-        <v>26</v>
+        <v>63</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -1333,16 +1346,16 @@
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L31" t="s">
         <v>25</v>
@@ -1350,10 +1363,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -1361,11 +1374,8 @@
       <c r="D32" t="s">
         <v>18</v>
       </c>
-      <c r="G32" t="s">
-        <v>64</v>
-      </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L32" t="s">
         <v>25</v>
@@ -1373,7 +1383,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Lab4CPU设计实验/输入来源表.xlsx
+++ b/Lab4CPU设计实验/输入来源表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="69">
   <si>
     <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,14 @@
   </si>
   <si>
     <t>EXT.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +628,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1278,6 +1286,12 @@
       </c>
       <c r="C28" t="s">
         <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">

--- a/Lab4CPU设计实验/输入来源表.xlsx
+++ b/Lab4CPU设计实验/输入来源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="69">
   <si>
     <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -628,7 +628,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1124,12 +1124,6 @@
       <c r="E20" t="s">
         <v>19</v>
       </c>
-      <c r="H20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" t="s">
-        <v>53</v>
-      </c>
       <c r="L20" t="s">
         <v>25</v>
       </c>
@@ -1150,12 +1144,6 @@
       <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="H21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" t="s">
-        <v>53</v>
-      </c>
       <c r="L21" t="s">
         <v>25</v>
       </c>
@@ -1387,9 +1375,6 @@
       </c>
       <c r="D32" t="s">
         <v>18</v>
-      </c>
-      <c r="H32" t="s">
-        <v>51</v>
       </c>
       <c r="L32" t="s">
         <v>25</v>
